--- a/cacopa1.xlsx
+++ b/cacopa1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremyknox/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{991D5407-1F55-1C46-9CA0-72BD5BFB48EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE6170D-9F0E-5740-922D-20F542846F5D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2260" windowWidth="22960" windowHeight="16300" xr2:uid="{E2E8FB7E-E933-7C4D-A165-3869F261ED3A}"/>
+    <workbookView xWindow="4480" yWindow="1440" windowWidth="22960" windowHeight="16300" xr2:uid="{E2E8FB7E-E933-7C4D-A165-3869F261ED3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -448,7 +448,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -490,7 +490,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>119.2945</v>
+        <v>-119.2945</v>
       </c>
       <c r="C2" s="1">
         <v>34.280500000000004</v>
@@ -524,7 +524,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>121.7527</v>
+        <v>-121.7527</v>
       </c>
       <c r="C3" s="1">
         <v>39.1599</v>
@@ -558,7 +558,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>120.9876</v>
+        <v>-120.9876</v>
       </c>
       <c r="C4" s="1">
         <v>37.509099999999997</v>
@@ -592,7 +592,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>122.0308</v>
+        <v>-122.0308</v>
       </c>
       <c r="C5" s="1">
         <v>36.9741</v>
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>120.18899999999999</v>
+        <v>-120.18899999999999</v>
       </c>
       <c r="C6" s="1">
         <v>36.6066</v>
@@ -660,7 +660,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>121.4944</v>
+        <v>-121.4944</v>
       </c>
       <c r="C7" s="1">
         <v>38.581600000000002</v>
@@ -694,7 +694,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>120.483</v>
+        <v>-120.483</v>
       </c>
       <c r="C8" s="1">
         <v>37.302199999999999</v>
@@ -728,7 +728,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>120.0607</v>
+        <v>-120.0607</v>
       </c>
       <c r="C9" s="1">
         <v>36.961300000000001</v>
@@ -762,7 +762,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1">
-        <v>118.5551</v>
+        <v>-118.5551</v>
       </c>
       <c r="C10" s="1">
         <v>36.887900000000002</v>
@@ -796,7 +796,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="1">
-        <v>119.2321</v>
+        <v>-119.2321</v>
       </c>
       <c r="C11" s="1">
         <v>36.985900000000001</v>

--- a/cacopa1.xlsx
+++ b/cacopa1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremyknox/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE6170D-9F0E-5740-922D-20F542846F5D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BA083E-078E-164D-8BB7-B51EBC59AA3F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4480" yWindow="1440" windowWidth="22960" windowHeight="16300" xr2:uid="{E2E8FB7E-E933-7C4D-A165-3869F261ED3A}"/>
+    <workbookView xWindow="0" yWindow="3480" windowWidth="22960" windowHeight="16300" xr2:uid="{E2E8FB7E-E933-7C4D-A165-3869F261ED3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,36 +30,6 @@
     <t>california</t>
   </si>
   <si>
-    <t>ventura</t>
-  </si>
-  <si>
-    <t>sutter</t>
-  </si>
-  <si>
-    <t>stanislaus</t>
-  </si>
-  <si>
-    <t>santa cruz</t>
-  </si>
-  <si>
-    <t>san joaquin</t>
-  </si>
-  <si>
-    <t>sacramento</t>
-  </si>
-  <si>
-    <t>merced</t>
-  </si>
-  <si>
-    <t>madera</t>
-  </si>
-  <si>
-    <t>kings</t>
-  </si>
-  <si>
-    <t>fresno</t>
-  </si>
-  <si>
     <t>long</t>
   </si>
   <si>
@@ -85,12 +55,45 @@
   </si>
   <si>
     <t>pound_per_mile</t>
+  </si>
+  <si>
+    <t>Ventura</t>
+  </si>
+  <si>
+    <t>Sutter</t>
+  </si>
+  <si>
+    <t>Stanislaus</t>
+  </si>
+  <si>
+    <t>Santa Cruz</t>
+  </si>
+  <si>
+    <t>San Joaquin</t>
+  </si>
+  <si>
+    <t>Sacramento</t>
+  </si>
+  <si>
+    <t>Merced</t>
+  </si>
+  <si>
+    <t>Madera</t>
+  </si>
+  <si>
+    <t>Kings</t>
+  </si>
+  <si>
+    <t>Fresno</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -126,11 +129,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,39 +452,42 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -490,10 +497,10 @@
         <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>-119.2945</v>
+        <v>-119.456</v>
       </c>
       <c r="C2" s="1">
-        <v>34.280500000000004</v>
+        <v>34.429040000000001</v>
       </c>
       <c r="D2" s="1">
         <v>212</v>
@@ -505,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1">
         <v>6532477</v>
@@ -524,10 +531,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>-121.7527</v>
+        <v>-121.9426</v>
       </c>
       <c r="C3" s="1">
-        <v>39.1599</v>
+        <v>39.17313</v>
       </c>
       <c r="D3" s="1">
         <v>207</v>
@@ -539,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H3" s="1">
         <v>3020090</v>
@@ -558,10 +565,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>-120.9876</v>
+        <v>-121.4842</v>
       </c>
       <c r="C4" s="1">
-        <v>37.509099999999997</v>
+        <v>37.448520000000002</v>
       </c>
       <c r="D4" s="1">
         <v>206</v>
@@ -573,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H4" s="1">
         <v>7076448</v>
@@ -592,10 +599,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>-122.0308</v>
+        <v>-122.3036</v>
       </c>
       <c r="C5" s="1">
-        <v>36.9741</v>
+        <v>37.144849999999998</v>
       </c>
       <c r="D5" s="1">
         <v>200</v>
@@ -607,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H5" s="1">
         <v>1907983</v>
@@ -626,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>-120.18899999999999</v>
+        <v>-121.5874</v>
       </c>
       <c r="C6" s="1">
-        <v>36.6066</v>
+        <v>38.004289999999997</v>
       </c>
       <c r="D6" s="1">
         <v>195</v>
@@ -641,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1">
         <v>12025375</v>
@@ -660,10 +667,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>-121.4944</v>
+        <v>-121.83369999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>38.581600000000002</v>
+        <v>38.061590000000002</v>
       </c>
       <c r="D7" s="1">
         <v>190</v>
@@ -675,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H7" s="1">
         <v>4025246</v>
@@ -694,10 +701,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>-120.483</v>
+        <v>-121.2551</v>
       </c>
       <c r="C8" s="1">
-        <v>37.302199999999999</v>
+        <v>37.024529999999999</v>
       </c>
       <c r="D8" s="1">
         <v>180</v>
@@ -709,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H8" s="1">
         <v>8953045</v>
@@ -728,10 +735,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>-120.0607</v>
+        <v>-120.5331</v>
       </c>
       <c r="C9" s="1">
-        <v>36.961300000000001</v>
+        <v>37.035989999999998</v>
       </c>
       <c r="D9" s="1">
         <v>176</v>
@@ -743,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H9" s="1">
         <v>9584260</v>
@@ -762,10 +769,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="1">
-        <v>-118.5551</v>
+        <v>-120.29819999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>36.887900000000002</v>
+        <v>35.901539999999997</v>
       </c>
       <c r="D10" s="1">
         <v>172</v>
@@ -777,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H10" s="1">
         <v>6886134</v>
@@ -795,11 +802,11 @@
       <c r="A11" s="1">
         <v>2</v>
       </c>
-      <c r="B11" s="1">
-        <v>-119.2321</v>
+      <c r="B11" s="4">
+        <v>-120.8998</v>
       </c>
       <c r="C11" s="1">
-        <v>36.985900000000001</v>
+        <v>36.738050000000001</v>
       </c>
       <c r="D11" s="1">
         <v>166</v>
@@ -811,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H11" s="1">
         <v>31828231</v>

--- a/cacopa1.xlsx
+++ b/cacopa1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremyknox/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BA083E-078E-164D-8BB7-B51EBC59AA3F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A996DB7-35F8-3943-BB9F-C14BC6B017DF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3480" windowWidth="22960" windowHeight="16300" xr2:uid="{E2E8FB7E-E933-7C4D-A165-3869F261ED3A}"/>
+    <workbookView xWindow="3320" yWindow="6480" windowWidth="22960" windowHeight="16300" xr2:uid="{E2E8FB7E-E933-7C4D-A165-3869F261ED3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -452,7 +452,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -667,10 +667,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>-121.83369999999999</v>
+        <v>-121.003</v>
       </c>
       <c r="C7" s="1">
-        <v>38.061590000000002</v>
+        <v>38.296500000000002</v>
       </c>
       <c r="D7" s="1">
         <v>190</v>
@@ -735,10 +735,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>-120.5331</v>
+        <v>-119.01479999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>37.035989999999998</v>
+        <v>37.580300000000001</v>
       </c>
       <c r="D9" s="1">
         <v>176</v>
